--- a/해야 할 일.xlsx
+++ b/해야 할 일.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B79F36CA-841B-4699-9677-48F558853550}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -251,13 +250,25 @@
   </si>
   <si>
     <t>(플달카)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그림자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Static</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -808,11 +819,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1299,11 +1310,21 @@
       <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>

--- a/해야 할 일.xlsx
+++ b/해야 할 일.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310B3893-AE1D-4FB7-B3C6-E511E2C1695B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -268,7 +269,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -819,11 +820,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -978,8 +979,8 @@
       <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="15" t="s">
-        <v>25</v>
+      <c r="F8" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
@@ -1002,8 +1003,8 @@
       <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="15" t="s">
-        <v>25</v>
+      <c r="F9" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>30</v>
@@ -1014,8 +1015,8 @@
       <c r="I9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="15" t="s">
-        <v>25</v>
+      <c r="J9" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1058,8 +1059,8 @@
       <c r="E11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="15" t="s">
-        <v>25</v>
+      <c r="F11" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>34</v>
@@ -1222,8 +1223,8 @@
       <c r="I17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>25</v>
+      <c r="J17" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1242,14 +1243,14 @@
       <c r="E18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="16" t="s">
-        <v>44</v>
+      <c r="F18" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>25</v>
+      <c r="H18" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="4"/>
@@ -1296,8 +1297,8 @@
       <c r="C20" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>25</v>
+      <c r="D20" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>

--- a/해야 할 일.xlsx
+++ b/해야 할 일.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310B3893-AE1D-4FB7-B3C6-E511E2C1695B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -263,13 +262,41 @@
   </si>
   <si>
     <t>Static</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순간이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>툴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대부분</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬로모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동문</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임밖으로</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -312,7 +339,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -518,11 +545,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -541,6 +616,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -820,11 +899,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -832,8 +911,8 @@
     <col min="2" max="2" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -847,7 +926,7 @@
       <c r="I2" s="2"/>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -860,14 +939,18 @@
       <c r="D3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
         <v>2</v>
       </c>
@@ -891,7 +974,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
         <v>3</v>
       </c>
@@ -911,7 +994,7 @@
       <c r="I5" s="1"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
         <v>4</v>
       </c>
@@ -935,7 +1018,7 @@
       <c r="I6" s="1"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <v>5</v>
       </c>
@@ -963,7 +1046,7 @@
       <c r="I7" s="1"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
         <v>6</v>
       </c>
@@ -987,7 +1070,7 @@
       <c r="I8" s="1"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
         <v>7</v>
       </c>
@@ -1019,7 +1102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
         <v>8</v>
       </c>
@@ -1043,7 +1126,7 @@
       <c r="I10" s="1"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
         <v>9</v>
       </c>
@@ -1065,13 +1148,23 @@
       <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H11" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" t="s">
+        <v>66</v>
+      </c>
+      <c r="L11" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
         <v>10</v>
       </c>
@@ -1090,8 +1183,14 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12" s="15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>11</v>
       </c>
@@ -1115,7 +1214,7 @@
       <c r="I13" s="1"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>12</v>
       </c>
@@ -1143,7 +1242,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>13</v>
       </c>
@@ -1167,7 +1266,7 @@
       <c r="I15" s="1"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>14</v>
       </c>
@@ -1307,29 +1406,53 @@
       <c r="I20" s="1"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="20"/>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="21"/>
+    </row>
+    <row r="22" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="11">
+        <v>20</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C22" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="6"/>
+      <c r="F22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/해야 할 일.xlsx
+++ b/해야 할 일.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,6 +290,38 @@
   </si>
   <si>
     <t>게임밖으로</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵3 찍자, 총구 화염 띄워보자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 뛰어다니는거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉐이더 배운거</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 남으면 맵2에 연기 폴폴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스테이지2에 카메라도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퀘스트 해야되는데</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -620,6 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -900,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1154,8 +1187,8 @@
       <c r="I11" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J11" s="15" t="s">
-        <v>25</v>
+      <c r="J11" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="K11" t="s">
         <v>66</v>
@@ -1186,8 +1219,8 @@
       <c r="K12" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="15" t="s">
-        <v>25</v>
+      <c r="L12" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -1364,14 +1397,14 @@
       <c r="C19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>25</v>
+      <c r="D19" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="15" t="s">
-        <v>25</v>
+      <c r="F19" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>54</v>
@@ -1382,8 +1415,8 @@
       <c r="I19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="15" t="s">
-        <v>25</v>
+      <c r="J19" s="17" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1454,6 +1487,42 @@
       <c r="I22" s="5"/>
       <c r="J22" s="6"/>
     </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/해야 할 일.xlsx
+++ b/해야 할 일.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A091FDB3-878A-4BFD-9A4F-83209AD202FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -328,7 +329,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -932,16 +933,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="28.25" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>

--- a/해야 할 일.xlsx
+++ b/해야 할 일.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A091FDB3-878A-4BFD-9A4F-83209AD202FF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EE5559-02CA-4041-A609-C260AC38D970}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,10 +198,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>▲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>카메라</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -290,10 +286,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>게임밖으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>오늘</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -323,6 +315,10 @@
   </si>
   <si>
     <t>퀘스트 해야되는데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제4의벽</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +342,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,12 +357,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -630,7 +620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -648,12 +638,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -937,7 +926,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -971,11 +960,11 @@
       <c r="C3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>25</v>
@@ -995,13 +984,13 @@
       <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G4" s="1"/>
@@ -1019,7 +1008,7 @@
       <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E5" s="1"/>
@@ -1039,13 +1028,13 @@
       <c r="C6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="1"/>
@@ -1063,20 +1052,20 @@
       <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="F7" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>25</v>
+      <c r="H7" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="4"/>
@@ -1091,13 +1080,13 @@
       <c r="C8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>25</v>
+      <c r="D8" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="F8" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G8" s="1"/>
@@ -1115,13 +1104,13 @@
       <c r="C9" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="F9" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G9" s="1" t="s">
@@ -1133,7 +1122,7 @@
       <c r="I9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1147,14 +1136,14 @@
       <c r="C10" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>25</v>
+      <c r="D10" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="15" t="s">
-        <v>25</v>
+      <c r="F10" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1178,22 +1167,22 @@
         <v>33</v>
       </c>
       <c r="F11" s="16" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
         <v>65</v>
-      </c>
-      <c r="J11" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>66</v>
       </c>
       <c r="L11" s="15" t="s">
         <v>25</v>
@@ -1209,7 +1198,7 @@
       <c r="C12" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="D12" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="1"/>
@@ -1219,9 +1208,9 @@
       <c r="I12" s="1"/>
       <c r="J12" s="4"/>
       <c r="K12" t="s">
-        <v>67</v>
-      </c>
-      <c r="L12" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1235,13 +1224,13 @@
       <c r="C13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="17" t="s">
+      <c r="F13" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G13" s="1"/>
@@ -1259,19 +1248,19 @@
       <c r="C14" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="17" t="s">
+      <c r="D14" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="17" t="s">
+      <c r="H14" s="16" t="s">
         <v>16</v>
       </c>
       <c r="I14" s="1"/>
@@ -1311,13 +1300,13 @@
       <c r="C16" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F16" s="17" t="s">
+      <c r="F16" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
@@ -1334,30 +1323,30 @@
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1366,25 +1355,25 @@
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F18" s="17" t="s">
+      <c r="F18" s="16" t="s">
         <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>43</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="4"/>
@@ -1394,30 +1383,30 @@
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="H19" s="15" t="s">
         <v>25</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J19" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1426,12 +1415,12 @@
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="1"/>
@@ -1445,41 +1434,41 @@
       <c r="A21" s="11">
         <v>19</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="D21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>64</v>
-      </c>
       <c r="F21" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="21"/>
+        <v>16</v>
+      </c>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>58</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>25</v>
@@ -1491,38 +1480,38 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="21" t="s">
         <v>68</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>72</v>
+        <v>67</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/해야 할 일.xlsx
+++ b/해야 할 일.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EE5559-02CA-4041-A609-C260AC38D970}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{217BB606-3F35-415B-9FE6-0C47BB7D75C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,10 +183,6 @@
   </si>
   <si>
     <t>네비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왜곡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -926,7 +922,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -964,7 +960,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>25</v>
@@ -1176,16 +1172,16 @@
         <v>16</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" t="s">
         <v>64</v>
       </c>
-      <c r="J11" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K11" t="s">
-        <v>65</v>
-      </c>
-      <c r="L11" s="15" t="s">
-        <v>25</v>
+      <c r="L11" s="16" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
@@ -1208,7 +1204,7 @@
       <c r="I12" s="1"/>
       <c r="J12" s="4"/>
       <c r="K12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L12" s="16" t="s">
         <v>16</v>
@@ -1273,18 +1269,14 @@
       <c r="B15" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>25</v>
-      </c>
+      <c r="D15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1310,10 +1302,10 @@
         <v>16</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>25</v>
+        <v>42</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" s="4"/>
@@ -1323,28 +1315,28 @@
         <v>15</v>
       </c>
       <c r="B17" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="D17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="J17" s="16" t="s">
         <v>16</v>
@@ -1355,7 +1347,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>26</v>
@@ -1370,7 +1362,7 @@
         <v>16</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H18" s="16" t="s">
         <v>16</v>
@@ -1383,28 +1375,28 @@
         <v>17</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>54</v>
       </c>
       <c r="J19" s="16" t="s">
         <v>16</v>
@@ -1415,10 +1407,10 @@
         <v>18</v>
       </c>
       <c r="B20" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>16</v>
@@ -1435,16 +1427,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="D21" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>16</v>
@@ -1459,16 +1451,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>58</v>
       </c>
       <c r="D22" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F22" s="15" t="s">
         <v>25</v>
@@ -1480,38 +1472,38 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
